--- a/datf_core/test/testcases/testcase29_manual_sql_fullname.xlsx
+++ b/datf_core/test/testcases/testcase29_manual_sql_fullname.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7324511C-441F-4E20-970E-36A7806E31E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8378E898-3C3B-449A-859E-3D573EFFA712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,12 +155,6 @@
     <t>patientswithnamessplit</t>
   </si>
   <si>
-    <t>/app/test/sql/sourcesql</t>
-  </si>
-  <si>
-    <t>/app/test/sql/targetsql</t>
-  </si>
-  <si>
     <t>likeobjectcompare</t>
   </si>
   <si>
@@ -174,6 +168,12 @@
   </si>
   <si>
     <t>tc29_oracle_tgt_query.sql</t>
+  </si>
+  <si>
+    <t>test/sql/sourcesql</t>
+  </si>
+  <si>
+    <t>test/sql/targetsql</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
